--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Areg-Erbb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Areg-Erbb3.xlsx
@@ -531,22 +531,22 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.484834666666667</v>
+        <v>0.2247043333333333</v>
       </c>
       <c r="H2">
-        <v>4.454504</v>
+        <v>0.674113</v>
       </c>
       <c r="I2">
-        <v>0.4307162850350085</v>
+        <v>0.2389319335355998</v>
       </c>
       <c r="J2">
-        <v>0.4307162850350084</v>
+        <v>0.2389319335355999</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,22 +561,22 @@
         <v>0.614446</v>
       </c>
       <c r="O2">
-        <v>0.06238051989214988</v>
+        <v>0.06522509891308133</v>
       </c>
       <c r="P2">
-        <v>0.06238051989214988</v>
+        <v>0.06522509891308133</v>
       </c>
       <c r="Q2">
-        <v>0.3041169071982223</v>
+        <v>0.04602289293311111</v>
       </c>
       <c r="R2">
-        <v>2.737052164784</v>
+        <v>0.414206036398</v>
       </c>
       <c r="S2">
-        <v>0.02686830578649925</v>
+        <v>0.01558435899835327</v>
       </c>
       <c r="T2">
-        <v>0.02686830578649924</v>
+        <v>0.01558435899835328</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.484834666666667</v>
+        <v>0.2247043333333333</v>
       </c>
       <c r="H3">
-        <v>4.454504</v>
+        <v>0.674113</v>
       </c>
       <c r="I3">
-        <v>0.4307162850350085</v>
+        <v>0.2389319335355998</v>
       </c>
       <c r="J3">
-        <v>0.4307162850350084</v>
+        <v>0.2389319335355999</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.7041406666666669</v>
+        <v>0.6481333333333333</v>
       </c>
       <c r="N3">
-        <v>2.112422</v>
+        <v>1.9444</v>
       </c>
       <c r="O3">
-        <v>0.2144598265618379</v>
+        <v>0.2064033004146749</v>
       </c>
       <c r="P3">
-        <v>0.2144598265618379</v>
+        <v>0.2064033004146749</v>
       </c>
       <c r="Q3">
-        <v>1.045532472076445</v>
+        <v>0.1456383685777778</v>
       </c>
       <c r="R3">
-        <v>9.409792248688001</v>
+        <v>1.3107453172</v>
       </c>
       <c r="S3">
-        <v>0.09237133978596707</v>
+        <v>0.04931633965620755</v>
       </c>
       <c r="T3">
-        <v>0.09237133978596705</v>
+        <v>0.04931633965620755</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.484834666666667</v>
+        <v>0.2247043333333333</v>
       </c>
       <c r="H4">
-        <v>4.454504</v>
+        <v>0.674113</v>
       </c>
       <c r="I4">
-        <v>0.4307162850350085</v>
+        <v>0.2389319335355998</v>
       </c>
       <c r="J4">
-        <v>0.4307162850350084</v>
+        <v>0.2389319335355999</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.644357666666667</v>
+        <v>1.888205</v>
       </c>
       <c r="N4">
-        <v>4.933073</v>
+        <v>5.664615</v>
       </c>
       <c r="O4">
-        <v>0.5008213226319767</v>
+        <v>0.6013141491351952</v>
       </c>
       <c r="P4">
-        <v>0.5008213226319767</v>
+        <v>0.6013141491351952</v>
       </c>
       <c r="Q4">
-        <v>2.441599267865778</v>
+        <v>0.4242878457216666</v>
       </c>
       <c r="R4">
-        <v>21.974393410792</v>
+        <v>3.818590611494999</v>
       </c>
       <c r="S4">
-        <v>0.2157118995503644</v>
+        <v>0.1436731523151862</v>
       </c>
       <c r="T4">
-        <v>0.2157118995503644</v>
+        <v>0.1436731523151863</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.484834666666667</v>
+        <v>0.2247043333333333</v>
       </c>
       <c r="H5">
-        <v>4.454504</v>
+        <v>0.674113</v>
       </c>
       <c r="I5">
-        <v>0.4307162850350085</v>
+        <v>0.2389319335355998</v>
       </c>
       <c r="J5">
-        <v>0.4307162850350084</v>
+        <v>0.2389319335355999</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7300083333333333</v>
+        <v>0.398977</v>
       </c>
       <c r="N5">
-        <v>2.190025</v>
+        <v>1.196931</v>
       </c>
       <c r="O5">
-        <v>0.2223383309140356</v>
+        <v>0.1270574515370486</v>
       </c>
       <c r="P5">
-        <v>0.2223383309140356</v>
+        <v>0.1270574515370486</v>
       </c>
       <c r="Q5">
-        <v>1.083941680288889</v>
+        <v>0.08965186080033331</v>
       </c>
       <c r="R5">
-        <v>9.7554751226</v>
+        <v>0.8068667472029999</v>
       </c>
       <c r="S5">
-        <v>0.09576473991217781</v>
+        <v>0.03035808256585278</v>
       </c>
       <c r="T5">
-        <v>0.09576473991217779</v>
+        <v>0.03035808256585279</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8156833333333333</v>
+        <v>0.4451493333333333</v>
       </c>
       <c r="H6">
-        <v>2.44705</v>
+        <v>1.335448</v>
       </c>
       <c r="I6">
-        <v>0.2366109190372076</v>
+        <v>0.4733348456063742</v>
       </c>
       <c r="J6">
-        <v>0.2366109190372076</v>
+        <v>0.4733348456063743</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,22 +809,22 @@
         <v>0.614446</v>
       </c>
       <c r="O6">
-        <v>0.06238051989214988</v>
+        <v>0.06522509891308133</v>
       </c>
       <c r="P6">
-        <v>0.06238051989214988</v>
+        <v>0.06522509891308133</v>
       </c>
       <c r="Q6">
-        <v>0.1670644538111111</v>
+        <v>0.09117340908977779</v>
       </c>
       <c r="R6">
-        <v>1.5035800843</v>
+        <v>0.820560681808</v>
       </c>
       <c r="S6">
-        <v>0.01475991214170039</v>
+        <v>0.03087331212368384</v>
       </c>
       <c r="T6">
-        <v>0.01475991214170039</v>
+        <v>0.03087331212368384</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8156833333333333</v>
+        <v>0.4451493333333333</v>
       </c>
       <c r="H7">
-        <v>2.44705</v>
+        <v>1.335448</v>
       </c>
       <c r="I7">
-        <v>0.2366109190372076</v>
+        <v>0.4733348456063742</v>
       </c>
       <c r="J7">
-        <v>0.2366109190372076</v>
+        <v>0.4733348456063743</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.7041406666666669</v>
+        <v>0.6481333333333333</v>
       </c>
       <c r="N7">
-        <v>2.112422</v>
+        <v>1.9444</v>
       </c>
       <c r="O7">
-        <v>0.2144598265618379</v>
+        <v>0.2064033004146749</v>
       </c>
       <c r="P7">
-        <v>0.2144598265618379</v>
+        <v>0.2064033004146749</v>
       </c>
       <c r="Q7">
-        <v>0.5743558061222224</v>
+        <v>0.2885161212444445</v>
       </c>
       <c r="R7">
-        <v>5.169202255100001</v>
+        <v>2.5966450912</v>
       </c>
       <c r="S7">
-        <v>0.05074353665935661</v>
+        <v>0.09769787433442623</v>
       </c>
       <c r="T7">
-        <v>0.05074353665935661</v>
+        <v>0.09769787433442624</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8156833333333333</v>
+        <v>0.4451493333333333</v>
       </c>
       <c r="H8">
-        <v>2.44705</v>
+        <v>1.335448</v>
       </c>
       <c r="I8">
-        <v>0.2366109190372076</v>
+        <v>0.4733348456063742</v>
       </c>
       <c r="J8">
-        <v>0.2366109190372076</v>
+        <v>0.4733348456063743</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.644357666666667</v>
+        <v>1.888205</v>
       </c>
       <c r="N8">
-        <v>4.933073</v>
+        <v>5.664615</v>
       </c>
       <c r="O8">
-        <v>0.5008213226319767</v>
+        <v>0.6013141491351952</v>
       </c>
       <c r="P8">
-        <v>0.5008213226319767</v>
+        <v>0.6013141491351952</v>
       </c>
       <c r="Q8">
-        <v>1.341275142738889</v>
+        <v>0.8405331969466666</v>
       </c>
       <c r="R8">
-        <v>12.07147628465</v>
+        <v>7.564798772519999</v>
       </c>
       <c r="S8">
-        <v>0.1184997934213818</v>
+        <v>0.2846229399418359</v>
       </c>
       <c r="T8">
-        <v>0.1184997934213818</v>
+        <v>0.284622939941836</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8156833333333333</v>
+        <v>0.4451493333333333</v>
       </c>
       <c r="H9">
-        <v>2.44705</v>
+        <v>1.335448</v>
       </c>
       <c r="I9">
-        <v>0.2366109190372076</v>
+        <v>0.4733348456063742</v>
       </c>
       <c r="J9">
-        <v>0.2366109190372076</v>
+        <v>0.4733348456063743</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.7300083333333333</v>
+        <v>0.398977</v>
       </c>
       <c r="N9">
-        <v>2.190025</v>
+        <v>1.196931</v>
       </c>
       <c r="O9">
-        <v>0.2223383309140356</v>
+        <v>0.1270574515370486</v>
       </c>
       <c r="P9">
-        <v>0.2223383309140356</v>
+        <v>0.1270574515370486</v>
       </c>
       <c r="Q9">
-        <v>0.5954556306944444</v>
+        <v>0.1776043455653333</v>
       </c>
       <c r="R9">
-        <v>5.35910067625</v>
+        <v>1.598439110088</v>
       </c>
       <c r="S9">
-        <v>0.05260767681476875</v>
+        <v>0.06014071920642826</v>
       </c>
       <c r="T9">
-        <v>0.05260767681476875</v>
+        <v>0.06014071920642827</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1.146843333333333</v>
+        <v>0.2705996666666666</v>
       </c>
       <c r="H10">
-        <v>3.44053</v>
+        <v>0.8117989999999999</v>
       </c>
       <c r="I10">
-        <v>0.332672795927784</v>
+        <v>0.2877332208580259</v>
       </c>
       <c r="J10">
-        <v>0.332672795927784</v>
+        <v>0.2877332208580259</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,22 +1057,22 @@
         <v>0.614446</v>
       </c>
       <c r="O10">
-        <v>0.06238051989214988</v>
+        <v>0.06522509891308133</v>
       </c>
       <c r="P10">
-        <v>0.06238051989214988</v>
+        <v>0.06522509891308133</v>
       </c>
       <c r="Q10">
-        <v>0.2348910995977778</v>
+        <v>0.05542296092822222</v>
       </c>
       <c r="R10">
-        <v>2.11401989638</v>
+        <v>0.498806648354</v>
       </c>
       <c r="S10">
-        <v>0.02075230196395025</v>
+        <v>0.01876742779104421</v>
       </c>
       <c r="T10">
-        <v>0.02075230196395025</v>
+        <v>0.01876742779104422</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>1.146843333333333</v>
+        <v>0.2705996666666666</v>
       </c>
       <c r="H11">
-        <v>3.44053</v>
+        <v>0.8117989999999999</v>
       </c>
       <c r="I11">
-        <v>0.332672795927784</v>
+        <v>0.2877332208580259</v>
       </c>
       <c r="J11">
-        <v>0.332672795927784</v>
+        <v>0.2877332208580259</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.7041406666666669</v>
+        <v>0.6481333333333333</v>
       </c>
       <c r="N11">
-        <v>2.112422</v>
+        <v>1.9444</v>
       </c>
       <c r="O11">
-        <v>0.2144598265618379</v>
+        <v>0.2064033004146749</v>
       </c>
       <c r="P11">
-        <v>0.2144598265618379</v>
+        <v>0.2064033004146749</v>
       </c>
       <c r="Q11">
-        <v>0.8075390292955557</v>
+        <v>0.1753846639555555</v>
       </c>
       <c r="R11">
-        <v>7.267851263660002</v>
+        <v>1.5784619756</v>
       </c>
       <c r="S11">
-        <v>0.07134495011651426</v>
+        <v>0.05938908642404112</v>
       </c>
       <c r="T11">
-        <v>0.07134495011651426</v>
+        <v>0.05938908642404113</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>1.146843333333333</v>
+        <v>0.2705996666666666</v>
       </c>
       <c r="H12">
-        <v>3.44053</v>
+        <v>0.8117989999999999</v>
       </c>
       <c r="I12">
-        <v>0.332672795927784</v>
+        <v>0.2877332208580259</v>
       </c>
       <c r="J12">
-        <v>0.332672795927784</v>
+        <v>0.2877332208580259</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.644357666666667</v>
+        <v>1.888205</v>
       </c>
       <c r="N12">
-        <v>4.933073</v>
+        <v>5.664615</v>
       </c>
       <c r="O12">
-        <v>0.5008213226319767</v>
+        <v>0.6013141491351952</v>
       </c>
       <c r="P12">
-        <v>0.5008213226319767</v>
+        <v>0.6013141491351952</v>
       </c>
       <c r="Q12">
-        <v>1.885820627632222</v>
+        <v>0.5109476435983332</v>
       </c>
       <c r="R12">
-        <v>16.97238564869</v>
+        <v>4.598528792384999</v>
       </c>
       <c r="S12">
-        <v>0.1666096296602304</v>
+        <v>0.173018056878173</v>
       </c>
       <c r="T12">
-        <v>0.1666096296602304</v>
+        <v>0.1730180568781731</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>1.146843333333333</v>
+        <v>0.2705996666666666</v>
       </c>
       <c r="H13">
-        <v>3.44053</v>
+        <v>0.8117989999999999</v>
       </c>
       <c r="I13">
-        <v>0.332672795927784</v>
+        <v>0.2877332208580259</v>
       </c>
       <c r="J13">
-        <v>0.332672795927784</v>
+        <v>0.2877332208580259</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.7300083333333333</v>
+        <v>0.398977</v>
       </c>
       <c r="N13">
-        <v>2.190025</v>
+        <v>1.196931</v>
       </c>
       <c r="O13">
-        <v>0.2223383309140356</v>
+        <v>0.1270574515370486</v>
       </c>
       <c r="P13">
-        <v>0.2223383309140356</v>
+        <v>0.1270574515370486</v>
       </c>
       <c r="Q13">
-        <v>0.837205190361111</v>
+        <v>0.1079630432076666</v>
       </c>
       <c r="R13">
-        <v>7.534846713249999</v>
+        <v>0.9716673888689999</v>
       </c>
       <c r="S13">
-        <v>0.07396591418708907</v>
+        <v>0.03655864976476751</v>
       </c>
       <c r="T13">
-        <v>0.07396591418708907</v>
+        <v>0.03655864976476752</v>
       </c>
     </row>
   </sheetData>
